--- a/mathTransformed/HMPSTT_(2016-01-02)_35_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-02)_35_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>GunariSmt G P H Govt. High School Kavaloor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S M V H S TavarageraKustagi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -554,6 +570,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S G High School</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -581,6 +602,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S KesarahattiGangavati</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Koppa</t>
         </is>
       </c>
@@ -608,6 +634,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. J R College</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>For Boys Koppal</t>
         </is>
       </c>
@@ -635,6 +666,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeYelburga</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -662,6 +698,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Girls P U CollegeKustagi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -689,6 +730,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>BenakallamathGovt. Girls High School Talakal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -716,6 +762,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>S J A High School Gondabal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -743,6 +794,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G G H S Hanamasagar</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -770,6 +826,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Navali Gangavathi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -797,6 +858,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G G H S Yelburga</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -824,6 +890,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S LingadahalliKushtagi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -851,6 +922,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High School DanapurGangavathi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -878,6 +954,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>S K C P U C CollegeGangavathi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -905,6 +986,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S NavalahalliKuishtagi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -932,6 +1018,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S H V KuntaYelburga</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -959,6 +1050,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G P U C Irakalgada</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -986,6 +1082,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S NilogalKushtagi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1013,6 +1114,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>S R S M H S Hitnal</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1040,6 +1146,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S Horatatnal</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1067,6 +1178,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S KuknoorYelburga</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1094,6 +1210,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Viveka Bharathi High SchoolGangavati</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1121,6 +1242,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High SchoolVajrabandiYelaburga</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1148,6 +1274,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S MukkumpiGangavatti</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1175,6 +1306,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Boys G P U CollegeKustagi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1202,6 +1338,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S HulihyderGangavathi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1229,6 +1370,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S YarageraKustagi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1256,6 +1402,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S IslampurGangavathi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1283,6 +1434,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S HirejanthkalGangavathi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1310,6 +1466,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S MataladinniYelburga</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Koppa</t>
         </is>
       </c>
@@ -1337,6 +1498,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S Chilakamukhi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1364,6 +1530,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J CollegeTalakalYelaburga</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1391,6 +1562,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt High SchoolKolur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1417,6 +1593,11 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>V N C P U C Munirabad</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Koppal</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-01-02)_35_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-02)_35_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
@@ -607,7 +606,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Koppa</t>
+          <t>Koppal</t>
         </is>
       </c>
     </row>
@@ -639,7 +638,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>For Boys Koppal</t>
+          <t>Koppal</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Koppa</t>
+          <t>Koppal</t>
         </is>
       </c>
     </row>
